--- a/data/trans_orig/cron_prev_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7688586636366818</v>
+        <v>0.769431845570848</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9916504398218998</v>
+        <v>1.005635489907851</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9127269912504047</v>
+        <v>0.9115514045761426</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.055170515089091</v>
+        <v>1.050494446741301</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.103630425557384</v>
+        <v>1.102992538862432</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.247892811734339</v>
+        <v>1.240088706799336</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.202023266447641</v>
+        <v>1.206178112414291</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.550021930463024</v>
+        <v>1.552373787418346</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9730748442873592</v>
+        <v>0.9736937520825197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.155922316696734</v>
+        <v>1.162919461659089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.102026693831381</v>
+        <v>1.098640228632342</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.36237390937711</v>
+        <v>1.360678514075496</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8919300713822712</v>
+        <v>0.8951297258097335</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.152952228721705</v>
+        <v>1.162205475334097</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.078407788631946</v>
+        <v>1.075372175650391</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.25368179884837</v>
+        <v>1.256925202456154</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.234531744924421</v>
+        <v>1.229576011671338</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.392287273811107</v>
+        <v>1.380797531233163</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.360171482724597</v>
+        <v>1.364605301684708</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.71077446034459</v>
+        <v>1.713604348415897</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.069712400714516</v>
+        <v>1.064262492473648</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.264431464486061</v>
+        <v>1.267901765100915</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.218025313489625</v>
+        <v>1.216016679137596</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1.49542057424471</v>
+        <v>1.496352434819008</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.4314936577642146</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5580041537037431</v>
+        <v>0.558004153703743</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3014488662345053</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2477377345284432</v>
+        <v>0.2476245458388201</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2958588192144225</v>
+        <v>0.2972358538912122</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3563366217497028</v>
+        <v>0.3536624927777893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5393859096540139</v>
+        <v>0.5367279840228475</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2963040168953138</v>
+        <v>0.2983807308636321</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3164706229690425</v>
+        <v>0.3219878155735479</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3961795246281259</v>
+        <v>0.3974345030943318</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5258947932634672</v>
+        <v>0.5253781345326953</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2812778741183394</v>
+        <v>0.2788598881609795</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3132620426475556</v>
+        <v>0.3159814838091063</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3841737206957314</v>
+        <v>0.3848123358089084</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5415722057903984</v>
+        <v>0.5431687042182916</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3096094877227419</v>
+        <v>0.3071219935306914</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3561423854521216</v>
+        <v>0.3581761602991276</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4191693787945965</v>
+        <v>0.4215811217350948</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6209760278072527</v>
+        <v>0.6203142894015263</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3649802871874377</v>
+        <v>0.3644229609688925</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3887544875853201</v>
+        <v>0.3876019225061429</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4701805695007959</v>
+        <v>0.4721254792054275</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5931934651370399</v>
+        <v>0.5886676525939242</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3253328241345602</v>
+        <v>0.3257778446910053</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3601137078408501</v>
+        <v>0.3605023499864954</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4346802375012045</v>
+        <v>0.4327321665554915</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5960764887752161</v>
+        <v>0.5964857256544659</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.3749299042008523</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5524743986615592</v>
+        <v>0.5524743986615591</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2948099367256486</v>
@@ -965,7 +965,7 @@
         <v>0.3529267511129028</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5447573515802789</v>
+        <v>0.5447573515802788</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2342011089188143</v>
+        <v>0.2286582006336199</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2401958163009699</v>
+        <v>0.2395030473289932</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3187216513650985</v>
+        <v>0.3220640702635145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4910625939741576</v>
+        <v>0.4941743673429573</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2416838814172993</v>
+        <v>0.2421281913104742</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2464834885363758</v>
+        <v>0.2459370401953734</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2728143830184371</v>
+        <v>0.2697652072554237</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4819633678060283</v>
+        <v>0.4873181192441945</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.248668890845761</v>
+        <v>0.2483137010495425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2610554035095934</v>
+        <v>0.2639541010967509</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3162112432782146</v>
+        <v>0.3147664138328942</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5047773534187713</v>
+        <v>0.5068241396948466</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3509598476527331</v>
+        <v>0.344396216086958</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.395130683560563</v>
+        <v>0.3844324673034222</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4420135439472644</v>
+        <v>0.4479965973774508</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6164678577397481</v>
+        <v>0.6206593968629405</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3561530742670805</v>
+        <v>0.3609105016889911</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.383950325802043</v>
+        <v>0.3891439035933957</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3977267201539146</v>
+        <v>0.3967583388187343</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5950275095784596</v>
+        <v>0.5942572411928126</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3287146563149822</v>
+        <v>0.3294773503599352</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3558076588683762</v>
+        <v>0.3553792577037535</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3979900977610339</v>
+        <v>0.4040681008582546</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5897824101649385</v>
+        <v>0.5920265279629906</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.6552565511526909</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7895853901937298</v>
+        <v>0.78958539019373</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5522916427951372</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4237657938785447</v>
+        <v>0.4253481357657214</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5051994838919136</v>
+        <v>0.4996345815354013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4916344582505036</v>
+        <v>0.490651236115381</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6311244799356115</v>
+        <v>0.6329852083090105</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6157169641580758</v>
+        <v>0.6174275684254669</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6701215652162276</v>
+        <v>0.6765975879194551</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6211151680545208</v>
+        <v>0.6214649430158601</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7583495468414606</v>
+        <v>0.7582743339749771</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5291684973396765</v>
+        <v>0.5312878104321391</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5975756721093325</v>
+        <v>0.6009173858171103</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5644648069096589</v>
+        <v>0.5670986846881582</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7069238834255748</v>
+        <v>0.7059544620575139</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4787891202888065</v>
+        <v>0.4814636860907485</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5660512585529407</v>
+        <v>0.5686631737528801</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.550269826400779</v>
+        <v>0.5513660550937721</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7039183934739213</v>
+        <v>0.7045414226976032</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6855296412286035</v>
+        <v>0.6834543440380882</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7438778061286404</v>
+        <v>0.7455478444211039</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6910043139886033</v>
+        <v>0.6931547803460376</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8187037659601347</v>
+        <v>0.8177294489068366</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5745569864761132</v>
+        <v>0.5754508310523667</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.648055678046551</v>
+        <v>0.6489573800016274</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6108349238679337</v>
+        <v>0.6111325728169559</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.753069473543171</v>
+        <v>0.751982146649825</v>
       </c>
     </row>
     <row r="16">
